--- a/output_path/XBRL_financial_statements_duly_authenticated_as_per_section_134_including_Board/401100NotesSubclassificationand.xlsx
+++ b/output_path/XBRL_financial_statements_duly_authenticated_as_per_section_134_including_Board/401100NotesSubclassificationand.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="52">
   <si>
     <t>01/04/2022
 to
@@ -26,6 +26,18 @@
 31/03/2022</t>
   </si>
   <si>
+    <t>Other current financial liabilities, others</t>
+  </si>
+  <si>
+    <t>Inventories</t>
+  </si>
+  <si>
+    <t>Other current financial assets others</t>
+  </si>
+  <si>
+    <t>Other current assets, others</t>
+  </si>
+  <si>
     <t>Advances, non-current</t>
   </si>
   <si>
@@ -77,19 +89,91 @@
     <t>Current liabilities portion of share application money pending allotment</t>
   </si>
   <si>
+    <t>330.98</t>
+  </si>
+  <si>
+    <t>0.11</t>
+  </si>
+  <si>
+    <t>252.51</t>
+  </si>
+  <si>
     <t>0</t>
   </si>
   <si>
+    <t>1,564.86</t>
+  </si>
+  <si>
+    <t>149.84</t>
+  </si>
+  <si>
+    <t>89.56</t>
+  </si>
+  <si>
+    <t>0.51</t>
+  </si>
+  <si>
     <t>1,355.87</t>
   </si>
   <si>
     <t>1,443.58</t>
   </si>
   <si>
+    <t>298.36</t>
+  </si>
+  <si>
+    <t>0.29</t>
+  </si>
+  <si>
+    <t>215.49</t>
+  </si>
+  <si>
+    <t>1,335.66</t>
+  </si>
+  <si>
+    <t>106.27</t>
+  </si>
+  <si>
+    <t>101.05</t>
+  </si>
+  <si>
+    <t>217</t>
+  </si>
+  <si>
     <t>1,451.97</t>
   </si>
   <si>
     <t>2,170.17</t>
+  </si>
+  <si>
+    <t>3.23</t>
+  </si>
+  <si>
+    <t>0.12</t>
+  </si>
+  <si>
+    <t>128</t>
+  </si>
+  <si>
+    <t>1.6</t>
+  </si>
+  <si>
+    <t>103.03</t>
+  </si>
+  <si>
+    <t>8.99</t>
+  </si>
+  <si>
+    <t>0.01</t>
+  </si>
+  <si>
+    <t>5.42</t>
+  </si>
+  <si>
+    <t>150.13</t>
+  </si>
+  <si>
+    <t>138.27</t>
   </si>
 </sst>
 </file>
@@ -447,7 +531,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -469,180 +553,439 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>33</v>
+      </c>
+      <c r="D2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>33</v>
+      </c>
+      <c r="D3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>34</v>
+      </c>
+      <c r="D4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>34</v>
+      </c>
+      <c r="D5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>35</v>
+      </c>
+      <c r="D6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>35</v>
+      </c>
+      <c r="D7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>36</v>
+      </c>
+      <c r="D9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>36</v>
+      </c>
+      <c r="D10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="C11" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="C12" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="C13" t="s">
-        <v>19</v>
+        <v>38</v>
+      </c>
+      <c r="D13" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="C14" t="s">
-        <v>19</v>
+        <v>38</v>
+      </c>
+      <c r="D14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>19</v>
+        <v>39</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>19</v>
+        <v>39</v>
+      </c>
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="C17" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>15</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
         <v>18</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
         <v>19</v>
       </c>
-      <c r="C18" t="s">
-        <v>19</v>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>20</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>21</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>22</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
